--- a/biology/Botanique/Ribes_aureum/Ribes_aureum.xlsx
+++ b/biology/Botanique/Ribes_aureum/Ribes_aureum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groseillier doré ou  Gadellier doré (Ribes aureum) est une espèce d'arbustes de la famille des Grossulariacées, originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a un synonyme : Chrysobotrya aurea (Pursh) Rydb. (1917). Ce reclassement n'a pas été repris par la suite.
 Elle a aussi de nombreuses sous-espèces et variétés reconnues :
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste caduc, pouvant atteindre trois mètres de haut.
 Les feuilles sont tri ou pentalobées et irrégulièrement crénelées-dentelées.
@@ -583,7 +599,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste est originaire des régions tempérées d'Amérique du Nord, principalement de l'ouest des États-Unis jusqu'à l'est du Canada. Il est absent des zones côtières.
 Son habitat est forestier ou semi-forestier et les ripisylves, en milieu relativement humide.
@@ -622,7 +640,9 @@
           <t>Utilisation et culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbuste est assez couramment utilisé en plante ornementale, en isolé ou en haie, en situation ensoleillée ou ombragée. Des variétés horticoles ont été créées (Junifer, Roodneus, Crandall...) et il a été hybridé avec Ribes sanguineum pour donner Ribes × gordonianum.
 Il se multiplie par semis ou bouturage. L'espèce est aussi utilisée comme porte-greffe pour l'obtention de groseilliers-tiges.
@@ -655,7 +675,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Antonina Ivanovna Pojarkova - Flore d'URSS - volume 9 - Sous la direction de Vladimir Leontjevich Komarov - Leningrad, 1939 - p. 205 de la traduction anglaise et 266-267 de l'édition originale
 Janita A.R. Ladyman - Ribes Aureum Pursh.- JnJ Associates - US Forest service Document téléchargeable
